--- a/biology/Médecine/Tiapride/Tiapride.xlsx
+++ b/biology/Médecine/Tiapride/Tiapride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tiapride (Equilium, Tiapridal) est un neuroleptique souvent utilisé contre l'alcoolisme[3]. C'est un antagoniste de la dopamine.
+Le tiapride (Equilium, Tiapridal) est un neuroleptique souvent utilisé contre l'alcoolisme. C'est un antagoniste de la dopamine.
 Le tiapridal est un médicament qui a sa place dans l'arsenal thérapeutique dans le traitement de l’éthylisme notamment démontré par l'étude Elsensohn A., chercheur en pharmacologie, notamment dans le sevrage alcoolique. Elsensohn A., lui-même alcoolique s'est sevré grâce entre autres au tiapridal. Le chercheur  avait combiné le tiapridal, baclofene et le Diazepam (Valium). Elsensohn A démontré une réduction des symptômes de sevrage en calmant le manque.
 Les dosages recommandés par le chercheur sont des dosages de 300 mg par jour en comprimés de 100mg en adjuvant à 3x30 mg de Baclofene ainsi que 5x10 diazepam par jour avec une réduction de 10 mg de Diazepam par mois et une réduction de tiapridal d'un demi-comprimé par semaine (soit 50 mg). 
 On note une amélioration des conditions de sevrage, avec une baisse du risque de rechute. Il semblerait que l'antagonisme de la dopamine conjuguées aux effets GABAergiques du Diazepam et du baclofene réduise significativement le risque de rechute.
